--- a/src/test/resources/Documents/4173/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4173/Base/JobPlanning.xlsx
@@ -1716,13 +1716,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="109">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s" s="110">
         <v>18</v>
@@ -1755,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1766,13 +1766,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s" s="125">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s" s="126">
         <v>18</v>
@@ -1805,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1816,13 +1816,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -1855,10 +1855,10 @@
         <v>18</v>
       </c>
       <c r="O10" t="s" s="144">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s" s="145">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
